--- a/task3/results/Excel/DistributionResponseLength.xlsx
+++ b/task3/results/Excel/DistributionResponseLength.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andreas\Documents\Programmieren\00_hochschule\BigData\task3\results\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{D3983759-5037-4181-AC68-F38615275CA5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FE4C95D-72AC-4A58-A6D7-7E8E15A9E8A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -624,8 +624,13 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-GB"/>
-              <a:t>ResponseLength Distribution</a:t>
+              <a:t>Verteilung</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> der Antwort-Größen</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1535,8 +1540,8 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>7143</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>128586</xdr:rowOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>80963</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1860,11 +1865,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
